--- a/User_credentials/Users_add.xlsx
+++ b/User_credentials/Users_add.xlsx
@@ -52,7 +52,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>tenekaw303@nicoimg.com</t>
+    <t>xqrcohdmhl@dragonhospital.net</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
